--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R86e22330954942b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rcf92d42cb1c449df"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rcf92d42cb1c449df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R3ae709dd9fee4b2b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R3ae709dd9fee4b2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R6db36c71ea03476d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R6db36c71ea03476d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R2773b82aaf824817"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,12 +28,12 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R2773b82aaf824817"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R946b1a60f5c045f1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R946b1a60f5c045f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rf810e3bc7fe9455c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rf810e3bc7fe9455c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R2cf286a90b3b431a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R2cf286a90b3b431a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R77f0eed861a54771"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R77f0eed861a54771"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rd00cc6d699ce49b5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rd00cc6d699ce49b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R27f7398787214e96"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R27f7398787214e96"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R693e98a94b8b4ac1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R693e98a94b8b4ac1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rc56753a49d1b48da"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rc56753a49d1b48da"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rbbf9c8a1d4724146"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rbbf9c8a1d4724146"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R288716f68e074bca"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R288716f68e074bca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Ra2d18dfd0913408c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Ra2d18dfd0913408c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R4e43ad4126a14f01"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R4e43ad4126a14f01"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rf0bd84fb05fa4779"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rf0bd84fb05fa4779"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rd394055f217c4e81"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rd394055f217c4e81"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R08c21e97fffa4315"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R08c21e97fffa4315"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R5768ec29f7324e01"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R5768ec29f7324e01"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rdcbbc3107f7e4f69"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rdcbbc3107f7e4f69"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R0c3f449d19394240"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R0c3f449d19394240"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R188faaa828ef41f4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R188faaa828ef41f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R081cf1019c464b82"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R081cf1019c464b82"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rf90867f193534c0b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rf90867f193534c0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R96cb9d678ed94737"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R96cb9d678ed94737"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rbbf2dc25c2224f72"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rbbf2dc25c2224f72"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Ra93e1cdb6b154c19"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Ra93e1cdb6b154c19"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R5176710dd0524e25"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R5176710dd0524e25"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rb63a360b192b457e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rb63a360b192b457e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R92300a97cffd4861"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R92300a97cffd4861"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R7b4dc415208d4981"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R7b4dc415208d4981"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R117ffff4e5704e20"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R117ffff4e5704e20"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R68c9c69b64d74338"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R68c9c69b64d74338"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R6d916e57a82b4f88"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R6d916e57a82b4f88"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R837f21336ccd4e4b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R837f21336ccd4e4b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Ra8fea2ae64c84162"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Ra8fea2ae64c84162"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R366cf5bda6084900"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R366cf5bda6084900"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Raba19f12194d47a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Raba19f12194d47a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R2310ffb4b2444b6b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R2310ffb4b2444b6b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R35a13aaab3d64453"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R35a13aaab3d64453"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rca6a605ec547438e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rca6a605ec547438e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R648a821e9a564dea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="R648a821e9a564dea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Ra814360aff944df1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/11_ColumnAddition.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Ra814360aff944df1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ColumnAddition" sheetId="1" r:id="Rb6f5f3d54e874ca8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
